--- a/test_tno_optimization_results.xlsx
+++ b/test_tno_optimization_results.xlsx
@@ -464,10 +464,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>25.75</v>
+        <v>64.25</v>
       </c>
       <c r="B2" t="n">
-        <v>341.9</v>
+        <v>3997.3</v>
       </c>
       <c r="C2" t="n">
         <v>20</v>
@@ -568,16 +568,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CARAPAZ Richard</t>
+          <t>VAN AERT Wout</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EF Education - EasyPost (WT)</t>
+          <t>Team Visma | Lease a Bike (WT)</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -595,16 +595,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEEUS Jordi</t>
+          <t>VAN DER POEL Mathieu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Red Bull - BORA - hansgrohe (WT)</t>
+          <t>Alpecin - Deceuninck (WT)</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -622,16 +622,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HEALY Ben</t>
+          <t>VINGEGAARD Jonas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EF Education - EasyPost (WT)</t>
+          <t>Team Visma | Lease a Bike (WT)</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -649,16 +649,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>JORGENSON Matteo</t>
+          <t>EVENEPOEL Remco</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Team Visma | Lease a Bike (WT)</t>
+          <t>Soudal Quick-Step (WT)</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -676,16 +676,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RODRÍGUEZ Carlos</t>
+          <t>ROGLIČ Primož</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>INEOS Grenadiers (WT)</t>
+          <t>Red Bull - BORA - hansgrohe (WT)</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -703,16 +703,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KUSS Sepp</t>
+          <t>ALMEIDA João</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Team Visma | Lease a Bike (WT)</t>
+          <t>UAE Team Emirates - XRG (WT)</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -730,16 +730,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HAIG Jack</t>
+          <t>GIRMAY Biniam</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Bahrain - Victorious (WT)</t>
+          <t>Intermarché - Wanty (WT)</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -757,16 +757,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DE PLUS Laurens</t>
+          <t>LIPOWITZ Florian</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>INEOS Grenadiers (WT)</t>
+          <t>Red Bull - BORA - hansgrohe (WT)</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -784,16 +784,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ALAPHILIPPE Julian</t>
+          <t>PHILIPSEN Jasper</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Tudor Pro Cycling Team (PRT)</t>
+          <t>Alpecin - Deceuninck (WT)</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.75</v>
+        <v>4</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -811,16 +811,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NEILANDS Krists</t>
+          <t>JORGENSON Matteo</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Israel - Premier Tech (PRT)</t>
+          <t>Team Visma | Lease a Bike (WT)</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -838,16 +838,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CARR Simon</t>
+          <t>SKJELMOSE Mattias</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cofidis (WT)</t>
+          <t>Lidl - Trek (WT)</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -865,16 +865,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LOUVEL Matis</t>
+          <t>MERLIER Tim</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Israel - Premier Tech (PRT)</t>
+          <t>Soudal Quick-Step (WT)</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -892,16 +892,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ARENSMAN Thymen</t>
+          <t>VAUQUELIN Kévin</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>INEOS Grenadiers (WT)</t>
+          <t>Arkéa - B&amp;B Hotels (WT)</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -919,16 +919,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BENOOT Tiesj</t>
+          <t>MILAN Jonathan</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Team Visma | Lease a Bike (WT)</t>
+          <t>Lidl - Trek (WT)</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.75</v>
+        <v>4</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -946,16 +946,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>THOMAS Geraint</t>
+          <t>O'CONNOR Ben</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>INEOS Grenadiers (WT)</t>
+          <t>Team Jayco AlUla (WT)</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -973,16 +973,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>THOMAS Benjamin</t>
+          <t>BUITRAGO Santiago</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cofidis (WT)</t>
+          <t>Bahrain - Victorious (WT)</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -1000,16 +1000,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>IZAGIRRE Ion</t>
+          <t>RODRÍGUEZ Carlos</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cofidis (WT)</t>
+          <t>INEOS Grenadiers (WT)</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CAMPENAERTS Victor</t>
+          <t>YATES Simon</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -1054,12 +1054,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SWEENY Harry</t>
+          <t>DE PLUS Laurens</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>EF Education - EasyPost (WT)</t>
+          <t>INEOS Grenadiers (WT)</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1086,7 +1086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O131"/>
+  <dimension ref="A1:O176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1178,19 +1178,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157.0714285714286</v>
+        <v>456.5</v>
       </c>
       <c r="C2" t="n">
-        <v>21.01517915940858</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>159</v>
+        <v>456.5</v>
       </c>
       <c r="E2" t="n">
-        <v>120</v>
+        <v>456.5</v>
       </c>
       <c r="F2" t="n">
-        <v>204</v>
+        <v>456.5</v>
       </c>
       <c r="G2" t="n">
         <v>7.5</v>
@@ -1225,30 +1225,30 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CARAPAZ Richard</t>
+          <t>VINGEGAARD Jonas</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.73333333333333</v>
+        <v>335</v>
       </c>
       <c r="C3" t="n">
-        <v>15.02205785577403</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>27</v>
+        <v>335</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>335</v>
       </c>
       <c r="F3" t="n">
-        <v>72</v>
+        <v>335</v>
       </c>
       <c r="G3" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>EF Education - EasyPost (WT)</t>
+          <t>Team Visma | Lease a Bike (WT)</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -1261,64 +1261,64 @@
         <v>40</v>
       </c>
       <c r="L3" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="M3" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="N3" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="O3" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MEEUS Jordi</t>
+          <t>EVENEPOEL Remco</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.5</v>
+        <v>297.5</v>
       </c>
       <c r="C4" t="n">
-        <v>11.23610252712212</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22</v>
+        <v>297.5</v>
       </c>
       <c r="E4" t="n">
-        <v>16</v>
+        <v>297.5</v>
       </c>
       <c r="F4" t="n">
-        <v>48</v>
+        <v>297.5</v>
       </c>
       <c r="G4" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Red Bull - BORA - hansgrohe (WT)</t>
+          <t>Soudal Quick-Step (WT)</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4" t="n">
         <v>0.05</v>
       </c>
       <c r="K4" t="n">
+        <v>40</v>
+      </c>
+      <c r="L4" t="n">
         <v>90</v>
       </c>
-      <c r="L4" t="n">
-        <v>40</v>
-      </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="N4" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="O4" t="n">
         <v>40</v>
@@ -1327,34 +1327,34 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HEALY Ben</t>
+          <t>ROGLIČ Primož</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19</v>
+        <v>276.1</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>276.1</v>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>276.1</v>
       </c>
       <c r="F5" t="n">
-        <v>21</v>
+        <v>276.1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>EF Education - EasyPost (WT)</t>
+          <t>Red Bull - BORA - hansgrohe (WT)</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5" t="n">
         <v>0.05</v>
@@ -1363,45 +1363,45 @@
         <v>40</v>
       </c>
       <c r="L5" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="N5" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="O5" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HAIG Jack</t>
+          <t>ALMEIDA João</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.45454545454546</v>
+        <v>257.6</v>
       </c>
       <c r="C6" t="n">
-        <v>11.94961875666969</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>257.6</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>257.6</v>
       </c>
       <c r="F6" t="n">
-        <v>41</v>
+        <v>257.6</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Bahrain - Victorious (WT)</t>
+          <t>UAE Team Emirates - XRG (WT)</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -1414,45 +1414,45 @@
         <v>40</v>
       </c>
       <c r="L6" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N6" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="O6" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NEILANDS Krists</t>
+          <t>VAN AERT Wout</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>239.8</v>
       </c>
       <c r="C7" t="n">
-        <v>4.69041575982343</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>239.8</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>239.8</v>
       </c>
       <c r="F7" t="n">
-        <v>14</v>
+        <v>239.8</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Israel - Premier Tech (PRT)</t>
+          <t>Team Visma | Lease a Bike (WT)</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -1462,52 +1462,52 @@
         <v>0.05</v>
       </c>
       <c r="K7" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="L7" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="N7" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="O7" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SWEENY Harry</t>
+          <t>LIPOWITZ Florian</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.5</v>
+        <v>214.1</v>
       </c>
       <c r="C8" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>4.5</v>
+        <v>214.1</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>214.1</v>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>214.1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>EF Education - EasyPost (WT)</t>
+          <t>Red Bull - BORA - hansgrohe (WT)</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J8" t="n">
         <v>0.05</v>
@@ -1516,45 +1516,45 @@
         <v>40</v>
       </c>
       <c r="L8" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N8" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="O8" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LOUVEL Matis</t>
+          <t>GIRMAY Biniam</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>174.7</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>174.7</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>174.7</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>174.7</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Israel - Premier Tech (PRT)</t>
+          <t>Intermarché - Wanty (WT)</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1564,10 +1564,10 @@
         <v>0.05</v>
       </c>
       <c r="K9" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="L9" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="M9" t="n">
         <v>40</v>
@@ -1576,36 +1576,36 @@
         <v>40</v>
       </c>
       <c r="O9" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>VAN DIJKE Mick</t>
+          <t>JORGENSON Matteo</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>162.7</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>162.7</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>162.7</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.7</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Red Bull - BORA - hansgrohe (WT)</t>
+          <t>Team Visma | Lease a Bike (WT)</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1618,13 +1618,13 @@
         <v>40</v>
       </c>
       <c r="L10" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="M10" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N10" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="O10" t="n">
         <v>40</v>
@@ -1633,81 +1633,81 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PITHIE Laurence</t>
+          <t>VAN DER POEL Mathieu</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>151.3</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>151.3</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>151.3</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>151.3</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Red Bull - BORA - hansgrohe (WT)</t>
+          <t>Alpecin - Deceuninck (WT)</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J11" t="n">
         <v>0.05</v>
       </c>
       <c r="K11" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="L11" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="M11" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N11" t="n">
         <v>40</v>
       </c>
       <c r="O11" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>STANNARD Robert</t>
+          <t>PHILIPSEN Jasper</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Bahrain - Victorious (WT)</t>
+          <t>Alpecin - Deceuninck (WT)</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1717,10 +1717,10 @@
         <v>0.05</v>
       </c>
       <c r="K12" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="L12" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M12" t="n">
         <v>40</v>
@@ -1735,30 +1735,30 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GRADEK Kamil</t>
+          <t>MERLIER Tim</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>134.2</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>134.2</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>134.2</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>134.2</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Bahrain - Victorious (WT)</t>
+          <t>Soudal Quick-Step (WT)</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1768,7 +1768,7 @@
         <v>0.05</v>
       </c>
       <c r="K13" t="n">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="L13" t="n">
         <v>40</v>
@@ -1786,34 +1786,34 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>VAN SINTMAARTENSDIJK Roel</t>
+          <t>SKJELMOSE Mattias</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>110.5</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>110.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>110.5</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>110.5</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Intermarché - Wanty (WT)</t>
+          <t>Lidl - Trek (WT)</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J14" t="n">
         <v>0.05</v>
@@ -1822,45 +1822,45 @@
         <v>40</v>
       </c>
       <c r="L14" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="M14" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N14" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="O14" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RUTSCH Jonas</t>
+          <t>O'CONNOR Ben</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>108.5</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>108.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>108.5</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>108.5</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Intermarché - Wanty (WT)</t>
+          <t>Team Jayco AlUla (WT)</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1873,45 +1873,45 @@
         <v>40</v>
       </c>
       <c r="L15" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M15" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="O15" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MOSCON Gianni</t>
+          <t>MILAN Jonathan</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>103.9</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>103.9</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>103.9</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>103.9</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Red Bull - BORA - hansgrohe (WT)</t>
+          <t>Lidl - Trek (WT)</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1921,7 +1921,7 @@
         <v>0.05</v>
       </c>
       <c r="K16" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="L16" t="n">
         <v>40</v>
@@ -1939,34 +1939,34 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BOIVIN Guillaume</t>
+          <t>RODRÍGUEZ Carlos</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>102.2</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>102.2</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>102.2</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>102.2</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Israel - Premier Tech (PRT)</t>
+          <t>INEOS Grenadiers (WT)</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J17" t="n">
         <v>0.05</v>
@@ -1975,13 +1975,13 @@
         <v>40</v>
       </c>
       <c r="L17" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M17" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="O17" t="n">
         <v>40</v>
@@ -1990,26 +1990,26 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>WRIGHT Fred</t>
+          <t>BUITRAGO Santiago</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>100.5</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>100.5</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>100.5</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>100.5</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -2026,13 +2026,13 @@
         <v>40</v>
       </c>
       <c r="L18" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M18" t="n">
         <v>40</v>
       </c>
       <c r="N18" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="O18" t="n">
         <v>70</v>
@@ -2041,30 +2041,30 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BRAET Vito</t>
+          <t>DE PLUS Laurens</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="G19" t="n">
         <v>0.5</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Intermarché - Wanty (WT)</t>
+          <t>INEOS Grenadiers (WT)</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -2080,42 +2080,42 @@
         <v>40</v>
       </c>
       <c r="M19" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N19" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="O19" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>POWLESS Neilson</t>
+          <t>YATES Simon</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>EF Education - EasyPost (WT)</t>
+          <t>Team Visma | Lease a Bike (WT)</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -2128,49 +2128,49 @@
         <v>40</v>
       </c>
       <c r="L20" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
       <c r="N20" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="O20" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ALMEIDA João</t>
+          <t>VAUQUELIN Kévin</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>90.5</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>90.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>90.5</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>90.5</v>
       </c>
       <c r="G21" t="n">
-        <v>4.5</v>
+        <v>0.75</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>UAE Team Emirates - XRG (WT)</t>
+          <t>Arkéa - B&amp;B Hotels (WT)</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J21" t="n">
         <v>0.05</v>
@@ -2182,46 +2182,46 @@
         <v>90</v>
       </c>
       <c r="M21" t="n">
+        <v>80</v>
+      </c>
+      <c r="N21" t="n">
+        <v>70</v>
+      </c>
+      <c r="O21" t="n">
         <v>90</v>
-      </c>
-      <c r="N21" t="n">
-        <v>90</v>
-      </c>
-      <c r="O21" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>YATES Adam</t>
+          <t>VAN EETVELT Lennert</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>88.8</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>88.8</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>88.8</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>88.8</v>
       </c>
       <c r="G22" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>UAE Team Emirates - XRG (WT)</t>
+          <t>Lotto (PRT)</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J22" t="n">
         <v>0.05</v>
@@ -2230,7 +2230,7 @@
         <v>40</v>
       </c>
       <c r="L22" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M22" t="n">
         <v>40</v>
@@ -2239,36 +2239,36 @@
         <v>80</v>
       </c>
       <c r="O22" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SIVAKOV Pavel</t>
+          <t>MAS Enric</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>UAE Team Emirates - XRG (WT)</t>
+          <t>Movistar Team (WT)</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -2281,13 +2281,13 @@
         <v>40</v>
       </c>
       <c r="L23" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M23" t="n">
         <v>40</v>
       </c>
       <c r="N23" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="O23" t="n">
         <v>40</v>
@@ -2296,30 +2296,30 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOLER Marc</t>
+          <t>ARENSMAN Thymen</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>85.8</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>85.8</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>85.8</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>85.8</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>UAE Team Emirates - XRG (WT)</t>
+          <t>INEOS Grenadiers (WT)</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2332,13 +2332,13 @@
         <v>40</v>
       </c>
       <c r="L24" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="M24" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N24" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="O24" t="n">
         <v>70</v>
@@ -2347,34 +2347,34 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>WELLENS Tim</t>
+          <t>MARTINEZ Lenny</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="G25" t="n">
         <v>1.5</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>UAE Team Emirates - XRG (WT)</t>
+          <t>Bahrain - Victorious (WT)</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J25" t="n">
         <v>0.05</v>
@@ -2383,13 +2383,13 @@
         <v>40</v>
       </c>
       <c r="L25" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M25" t="n">
         <v>40</v>
       </c>
       <c r="N25" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="O25" t="n">
         <v>70</v>
@@ -2398,34 +2398,34 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>NARVÁEZ Jhonatan</t>
+          <t>HEALY Ben</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>UAE Team Emirates - XRG (WT)</t>
+          <t>EF Education - EasyPost (WT)</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J26" t="n">
         <v>0.05</v>
@@ -2434,41 +2434,41 @@
         <v>40</v>
       </c>
       <c r="L26" t="n">
+        <v>70</v>
+      </c>
+      <c r="M26" t="n">
         <v>80</v>
       </c>
-      <c r="M26" t="n">
-        <v>40</v>
-      </c>
       <c r="N26" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="O26" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>POLITT Nils</t>
+          <t>YATES Adam</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>82.2</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>82.2</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>82.2</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>82.2</v>
       </c>
       <c r="G27" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>40</v>
       </c>
       <c r="N27" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="O27" t="n">
         <v>40</v>
@@ -2500,30 +2500,30 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GALL Felix</t>
+          <t>KUSS Sepp</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Decathlon AG2R La Mondiale Team (WT)</t>
+          <t>Team Visma | Lease a Bike (WT)</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2551,30 +2551,30 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ROGLIČ Primož</t>
+          <t>STORER Michael</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>71.2</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>71.2</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>71.2</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>71.2</v>
       </c>
       <c r="G29" t="n">
-        <v>3.5</v>
+        <v>0.75</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Red Bull - BORA - hansgrohe (WT)</t>
+          <t>Tudor Pro Cycling Team (PRT)</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2587,45 +2587,45 @@
         <v>40</v>
       </c>
       <c r="L29" t="n">
+        <v>40</v>
+      </c>
+      <c r="M29" t="n">
+        <v>40</v>
+      </c>
+      <c r="N29" t="n">
         <v>80</v>
       </c>
-      <c r="M29" t="n">
-        <v>95</v>
-      </c>
-      <c r="N29" t="n">
-        <v>90</v>
-      </c>
       <c r="O29" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>VLASOV Aleksandr</t>
+          <t>GROENEWEGEN Dylan</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>68.8</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>68.8</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>68.8</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>68.8</v>
       </c>
       <c r="G30" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Red Bull - BORA - hansgrohe (WT)</t>
+          <t>Team Jayco AlUla (WT)</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2635,48 +2635,48 @@
         <v>0.05</v>
       </c>
       <c r="K30" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="L30" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="M30" t="n">
         <v>40</v>
       </c>
       <c r="N30" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="O30" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>VAN POPPEL Danny</t>
+          <t>THOMAS Geraint</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Red Bull - BORA - hansgrohe (WT)</t>
+          <t>INEOS Grenadiers (WT)</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2686,44 +2686,44 @@
         <v>0.05</v>
       </c>
       <c r="K31" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="L31" t="n">
         <v>40</v>
       </c>
       <c r="M31" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N31" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="O31" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>LIPOWITZ Florian</t>
+          <t>MEEUS Jordi</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2731,22 +2731,22 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J32" t="n">
         <v>0.05</v>
       </c>
       <c r="K32" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="L32" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="M32" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N32" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="O32" t="n">
         <v>40</v>
@@ -2755,34 +2755,34 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EVENEPOEL Remco</t>
+          <t>GALL Felix</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="G33" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Soudal Quick-Step (WT)</t>
+          <t>Decathlon AG2R La Mondiale Team (WT)</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J33" t="n">
         <v>0.05</v>
@@ -2791,13 +2791,13 @@
         <v>40</v>
       </c>
       <c r="L33" t="n">
+        <v>40</v>
+      </c>
+      <c r="M33" t="n">
+        <v>40</v>
+      </c>
+      <c r="N33" t="n">
         <v>80</v>
-      </c>
-      <c r="M33" t="n">
-        <v>98</v>
-      </c>
-      <c r="N33" t="n">
-        <v>90</v>
       </c>
       <c r="O33" t="n">
         <v>40</v>
@@ -2806,26 +2806,26 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MERLIER Tim</t>
+          <t>VAN WILDER Ilan</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="G34" t="n">
-        <v>3.5</v>
+        <v>0.75</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2839,48 +2839,48 @@
         <v>0.05</v>
       </c>
       <c r="K34" t="n">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="L34" t="n">
         <v>40</v>
       </c>
       <c r="M34" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N34" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="O34" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>VAN LERBERGHE Bert</t>
+          <t>LUTSENKO Alexey</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>61.9</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>61.9</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>61.9</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>61.9</v>
       </c>
       <c r="G35" t="n">
         <v>0.5</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Soudal Quick-Step (WT)</t>
+          <t>Israel - Premier Tech (PRT)</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -2893,45 +2893,45 @@
         <v>40</v>
       </c>
       <c r="L35" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M35" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N35" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="O35" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>EENKHOORN Pascal</t>
+          <t>TEJADA Harold</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>61.6</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>61.6</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>61.6</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>61.6</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Soudal Quick-Step (WT)</t>
+          <t>XDS Astana Team (WT)</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -2947,10 +2947,10 @@
         <v>40</v>
       </c>
       <c r="M36" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N36" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="O36" t="n">
         <v>70</v>
@@ -2959,30 +2959,30 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PARET-PEINTRE Valentin</t>
+          <t>GANNA Filippo</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>57.2</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>57.2</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>57.2</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>57.2</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Soudal Quick-Step (WT)</t>
+          <t>INEOS Grenadiers (WT)</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -2995,13 +2995,13 @@
         <v>40</v>
       </c>
       <c r="L37" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M37" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="N37" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="O37" t="n">
         <v>70</v>
@@ -3010,34 +3010,34 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>VAN WILDER Ilan</t>
+          <t>ROMEO Iván</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>56.7</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>56.7</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>56.7</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>56.7</v>
       </c>
       <c r="G38" t="n">
         <v>0.75</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Soudal Quick-Step (WT)</t>
+          <t>Movistar Team (WT)</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J38" t="n">
         <v>0.05</v>
@@ -3049,7 +3049,7 @@
         <v>40</v>
       </c>
       <c r="M38" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N38" t="n">
         <v>70</v>
@@ -3061,30 +3061,30 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SCHACHMANN Maximilian</t>
+          <t>GARCÍA CORTINA Iván</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>54.7</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>54.7</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>54.7</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>54.7</v>
       </c>
       <c r="G39" t="n">
         <v>0.75</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Soudal Quick-Step (WT)</t>
+          <t>Movistar Team (WT)</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3094,13 +3094,13 @@
         <v>0.05</v>
       </c>
       <c r="K39" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="L39" t="n">
         <v>70</v>
       </c>
       <c r="M39" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N39" t="n">
         <v>40</v>
@@ -3112,30 +3112,30 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CATTANEO Mattia</t>
+          <t>DE LIE Arnaud</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="G40" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Soudal Quick-Step (WT)</t>
+          <t>Lotto (PRT)</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3145,13 +3145,13 @@
         <v>0.05</v>
       </c>
       <c r="K40" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="L40" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M40" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N40" t="n">
         <v>40</v>
@@ -3163,30 +3163,30 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PEDERSEN Casper</t>
+          <t>RUBIO Einer</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>46.9</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>46.9</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>46.9</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>46.9</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Soudal Quick-Step (WT)</t>
+          <t>Movistar Team (WT)</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3205,10 +3205,10 @@
         <v>40</v>
       </c>
       <c r="N41" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="O41" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42">
@@ -3218,19 +3218,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>46.2</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>46.2</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>46.2</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>46.2</v>
       </c>
       <c r="G42" t="n">
         <v>0.75</v>
@@ -3265,30 +3265,30 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>IZAGIRRE Ion</t>
+          <t>MARTIN Guillaume</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>44.5</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>44.5</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>44.5</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>44.5</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Cofidis (WT)</t>
+          <t>Groupama - FDJ (WT)</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3304,42 +3304,42 @@
         <v>40</v>
       </c>
       <c r="M43" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N43" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="O43" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>THOMAS Benjamin</t>
+          <t>HAIG Jack</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>44.4</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>44.4</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>44.4</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>44.4</v>
       </c>
       <c r="G44" t="n">
         <v>0.5</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Cofidis (WT)</t>
+          <t>Bahrain - Victorious (WT)</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3355,10 +3355,10 @@
         <v>40</v>
       </c>
       <c r="M44" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N44" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="O44" t="n">
         <v>70</v>
@@ -3367,30 +3367,30 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BUCHMANN Emanuel</t>
+          <t>ZIMMERMANN Georg</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>44.1</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>44.1</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>44.1</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>44.1</v>
       </c>
       <c r="G45" t="n">
         <v>0.5</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Cofidis (WT)</t>
+          <t>Intermarché - Wanty (WT)</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3403,7 +3403,7 @@
         <v>40</v>
       </c>
       <c r="L45" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M45" t="n">
         <v>40</v>
@@ -3418,30 +3418,30 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CARR Simon</t>
+          <t>MADOUAS Valentin</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>43.9</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>43.9</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>43.9</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>43.9</v>
       </c>
       <c r="G46" t="n">
         <v>0.5</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Cofidis (WT)</t>
+          <t>Groupama - FDJ (WT)</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3454,7 +3454,7 @@
         <v>40</v>
       </c>
       <c r="L46" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M46" t="n">
         <v>40</v>
@@ -3463,36 +3463,36 @@
         <v>70</v>
       </c>
       <c r="O46" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>VAN DER POEL Mathieu</t>
+          <t>JEANNIÈRE Emilien</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>43.6</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>43.6</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>43.6</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>43.6</v>
       </c>
       <c r="G47" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Alpecin - Deceuninck (WT)</t>
+          <t>Team TotalEnergies (PRT)</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3502,48 +3502,48 @@
         <v>0.05</v>
       </c>
       <c r="K47" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L47" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="M47" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N47" t="n">
         <v>40</v>
       </c>
       <c r="O47" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PHILIPSEN Jasper</t>
+          <t>JOHANNESSEN Tobias Halland</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>43.2</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>43.2</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>43.2</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>43.2</v>
       </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Alpecin - Deceuninck (WT)</t>
+          <t>Uno-X Mobility (PRT)</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -3553,48 +3553,48 @@
         <v>0.05</v>
       </c>
       <c r="K48" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="L48" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="M48" t="n">
         <v>40</v>
       </c>
       <c r="N48" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="O48" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>GROVES Kaden</t>
+          <t>HIGUITA Sergio</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>42.4</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>42.4</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>42.4</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>42.4</v>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Alpecin - Deceuninck (WT)</t>
+          <t>XDS Astana Team (WT)</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -3604,7 +3604,7 @@
         <v>0.05</v>
       </c>
       <c r="K49" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="L49" t="n">
         <v>40</v>
@@ -3613,43 +3613,43 @@
         <v>40</v>
       </c>
       <c r="N49" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="O49" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>RIESEBEEK Oscar</t>
+          <t>CASTRILLO Pablo</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Alpecin - Deceuninck (WT)</t>
+          <t>Movistar Team (WT)</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J50" t="n">
         <v>0.05</v>
@@ -3664,90 +3664,90 @@
         <v>40</v>
       </c>
       <c r="N50" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="O50" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>VAUQUELIN Kévin</t>
+          <t>COQUARD Bryan</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>41.3</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>41.3</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>41.3</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>41.3</v>
       </c>
       <c r="G51" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Arkéa - B&amp;B Hotels (WT)</t>
+          <t>Cofidis (WT)</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J51" t="n">
         <v>0.05</v>
       </c>
       <c r="K51" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="L51" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="M51" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N51" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="O51" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>VINGEGAARD Jonas</t>
+          <t>CHAMPOUSSIN Clément</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="G52" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Team Visma | Lease a Bike (WT)</t>
+          <t>XDS Astana Team (WT)</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -3760,45 +3760,45 @@
         <v>40</v>
       </c>
       <c r="L52" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="M52" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="N52" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="O52" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>VAN AERT Wout</t>
+          <t>CATTANEO Mattia</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="G53" t="n">
-        <v>3.5</v>
+        <v>0.75</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Team Visma | Lease a Bike (WT)</t>
+          <t>Soudal Quick-Step (WT)</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -3808,48 +3808,48 @@
         <v>0.05</v>
       </c>
       <c r="K53" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="L53" t="n">
+        <v>40</v>
+      </c>
+      <c r="M53" t="n">
         <v>90</v>
       </c>
-      <c r="M53" t="n">
-        <v>95</v>
-      </c>
       <c r="N53" t="n">
         <v>40</v>
       </c>
       <c r="O53" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>YATES Simon</t>
+          <t>SEPÚLVEDA Eduardo</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="G54" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Team Visma | Lease a Bike (WT)</t>
+          <t>Lotto (PRT)</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -3865,10 +3865,10 @@
         <v>40</v>
       </c>
       <c r="M54" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N54" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O54" t="n">
         <v>40</v>
@@ -3877,30 +3877,30 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>JORGENSON Matteo</t>
+          <t>PARET-PEINTRE Valentin</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Team Visma | Lease a Bike (WT)</t>
+          <t>Soudal Quick-Step (WT)</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -3913,45 +3913,45 @@
         <v>40</v>
       </c>
       <c r="L55" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M55" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N55" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O55" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>AFFINI Edoardo</t>
+          <t>BAUHAUS Phil</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="G56" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Team Visma | Lease a Bike (WT)</t>
+          <t>Bahrain - Victorious (WT)</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -3961,13 +3961,13 @@
         <v>0.05</v>
       </c>
       <c r="K56" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="L56" t="n">
         <v>40</v>
       </c>
       <c r="M56" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N56" t="n">
         <v>40</v>
@@ -3979,30 +3979,30 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BENOOT Tiesj</t>
+          <t>WÆRENSKJOLD Søren</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>40.4</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>40.4</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>40.4</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>40.4</v>
       </c>
       <c r="G57" t="n">
         <v>0.75</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Team Visma | Lease a Bike (WT)</t>
+          <t>Uno-X Mobility (PRT)</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4012,10 +4012,10 @@
         <v>0.05</v>
       </c>
       <c r="K57" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="L57" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="M57" t="n">
         <v>40</v>
@@ -4024,36 +4024,36 @@
         <v>40</v>
       </c>
       <c r="O57" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>KUSS Sepp</t>
+          <t>BUCHMANN Emanuel</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>40.3</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>40.3</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>40.3</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>40.3</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Team Visma | Lease a Bike (WT)</t>
+          <t>Cofidis (WT)</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4072,39 +4072,39 @@
         <v>40</v>
       </c>
       <c r="N58" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O58" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CAMPENAERTS Victor</t>
+          <t>VLASOV Aleksandr</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G59" t="n">
         <v>0.75</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Team Visma | Lease a Bike (WT)</t>
+          <t>Red Bull - BORA - hansgrohe (WT)</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4117,49 +4117,49 @@
         <v>40</v>
       </c>
       <c r="L59" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M59" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N59" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="O59" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>KWIATKOWSKI Michał</t>
+          <t>ONLEY Oscar</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>39.9</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>39.9</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>39.9</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>39.9</v>
       </c>
       <c r="G60" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>INEOS Grenadiers (WT)</t>
+          <t>Team Picnic PostNL (WT)</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J60" t="n">
         <v>0.05</v>
@@ -4174,43 +4174,43 @@
         <v>40</v>
       </c>
       <c r="N60" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="O60" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>RODRÍGUEZ Carlos</t>
+          <t>WOODS Michael</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>39.6</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>39.6</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>39.6</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>39.6</v>
       </c>
       <c r="G61" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>INEOS Grenadiers (WT)</t>
+          <t>Israel - Premier Tech (PRT)</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J61" t="n">
         <v>0.05</v>
@@ -4222,42 +4222,42 @@
         <v>70</v>
       </c>
       <c r="M61" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N61" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O61" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>GANNA Filippo</t>
+          <t>NEILANDS Krists</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>37.9</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>37.9</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>37.9</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>37.9</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>INEOS Grenadiers (WT)</t>
+          <t>Israel - Premier Tech (PRT)</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -4267,16 +4267,16 @@
         <v>0.05</v>
       </c>
       <c r="K62" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="L62" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M62" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="N62" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="O62" t="n">
         <v>70</v>
@@ -4285,30 +4285,30 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>THOMAS Geraint</t>
+          <t>JEGAT Jordan</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>36.4</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>36.4</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>36.4</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>36.4</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>INEOS Grenadiers (WT)</t>
+          <t>Team TotalEnergies (PRT)</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -4324,7 +4324,7 @@
         <v>40</v>
       </c>
       <c r="M63" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N63" t="n">
         <v>70</v>
@@ -4336,30 +4336,30 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ARENSMAN Thymen</t>
+          <t>DAINESE Alberto</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>36.2</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>36.2</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>36.2</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>36.2</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>INEOS Grenadiers (WT)</t>
+          <t>Tudor Pro Cycling Team (PRT)</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -4369,48 +4369,48 @@
         <v>0.05</v>
       </c>
       <c r="K64" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="L64" t="n">
         <v>40</v>
       </c>
       <c r="M64" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N64" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="O64" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>DE PLUS Laurens</t>
+          <t>DUNBAR Eddie</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>35.9</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>35.9</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>35.9</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>35.9</v>
       </c>
       <c r="G65" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>INEOS Grenadiers (WT)</t>
+          <t>Team Jayco AlUla (WT)</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -4426,7 +4426,7 @@
         <v>40</v>
       </c>
       <c r="M65" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N65" t="n">
         <v>70</v>
@@ -4438,30 +4438,30 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>FOSS Tobias</t>
+          <t>AFFINI Edoardo</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G66" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>INEOS Grenadiers (WT)</t>
+          <t>Team Visma | Lease a Bike (WT)</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -4474,45 +4474,45 @@
         <v>40</v>
       </c>
       <c r="L66" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="M66" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N66" t="n">
         <v>40</v>
       </c>
       <c r="O66" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>GIRMAY Biniam</t>
+          <t>BARGUIL Warren</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>33.9</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>33.9</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>33.9</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>33.9</v>
       </c>
       <c r="G67" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Intermarché - Wanty (WT)</t>
+          <t>Team Picnic PostNL (WT)</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -4522,48 +4522,48 @@
         <v>0.05</v>
       </c>
       <c r="K67" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="L67" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M67" t="n">
         <v>40</v>
       </c>
       <c r="N67" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="O67" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PAGE Hugo</t>
+          <t>RODRÍGUEZ Cristián</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G68" t="n">
         <v>0.5</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Intermarché - Wanty (WT)</t>
+          <t>Arkéa - B&amp;B Hotels (WT)</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -4582,32 +4582,32 @@
         <v>40</v>
       </c>
       <c r="N68" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="O68" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>REX Laurenz</t>
+          <t>BARRÉ Louis</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="G69" t="n">
         <v>0.5</v>
@@ -4633,7 +4633,7 @@
         <v>40</v>
       </c>
       <c r="N69" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="O69" t="n">
         <v>70</v>
@@ -4642,30 +4642,30 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ZIMMERMANN Georg</t>
+          <t>CRAS Steff</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>30.8</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>30.8</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>30.8</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>30.8</v>
       </c>
       <c r="G70" t="n">
         <v>0.5</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Intermarché - Wanty (WT)</t>
+          <t>Team TotalEnergies (PRT)</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -4678,7 +4678,7 @@
         <v>40</v>
       </c>
       <c r="L70" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="M70" t="n">
         <v>40</v>
@@ -4693,30 +4693,30 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BARRÉ Louis</t>
+          <t>STEWART Jake</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>30.6</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>30.6</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>30.6</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>30.6</v>
       </c>
       <c r="G71" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Intermarché - Wanty (WT)</t>
+          <t>Israel - Premier Tech (PRT)</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -4726,7 +4726,7 @@
         <v>0.05</v>
       </c>
       <c r="K71" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="L71" t="n">
         <v>40</v>
@@ -4735,39 +4735,39 @@
         <v>40</v>
       </c>
       <c r="N71" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="O71" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MILAN Jonathan</t>
+          <t>ACKERMANN Pascal</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>29.6</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>29.6</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>29.6</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>29.6</v>
       </c>
       <c r="G72" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Lidl - Trek (WT)</t>
+          <t>Israel - Premier Tech (PRT)</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -4777,7 +4777,7 @@
         <v>0.05</v>
       </c>
       <c r="K72" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="L72" t="n">
         <v>40</v>
@@ -4795,81 +4795,81 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SKJELMOSE Mattias</t>
+          <t>DÉMARE Arnaud</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>27.8</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>27.8</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>27.8</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>27.8</v>
       </c>
       <c r="G73" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Lidl - Trek (WT)</t>
+          <t>Arkéa - B&amp;B Hotels (WT)</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J73" t="n">
         <v>0.05</v>
       </c>
       <c r="K73" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="L73" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M73" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N73" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="O73" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>STUYVEN Jasper</t>
+          <t>SIVAKOV Pavel</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>27.7</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>27.7</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>27.7</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>27.7</v>
       </c>
       <c r="G74" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Lidl - Trek (WT)</t>
+          <t>UAE Team Emirates - XRG (WT)</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -4888,39 +4888,39 @@
         <v>40</v>
       </c>
       <c r="N74" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="O74" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>THEUNS Edward</t>
+          <t>CAMPENAERTS Victor</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Lidl - Trek (WT)</t>
+          <t>Team Visma | Lease a Bike (WT)</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -4936,42 +4936,42 @@
         <v>40</v>
       </c>
       <c r="M75" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N75" t="n">
         <v>40</v>
       </c>
       <c r="O75" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CONSONNI Simone</t>
+          <t>PLAPP Luke</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>22.4</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>22.4</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>22.4</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>22.4</v>
       </c>
       <c r="G76" t="n">
         <v>0.5</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Lidl - Trek (WT)</t>
+          <t>Team Jayco AlUla (WT)</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -4984,45 +4984,45 @@
         <v>40</v>
       </c>
       <c r="L76" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M76" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N76" t="n">
         <v>40</v>
       </c>
       <c r="O76" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BERNARD Julien</t>
+          <t>FOSS Tobias</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>21.4</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>21.4</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>21.4</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>21.4</v>
       </c>
       <c r="G77" t="n">
         <v>0.5</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Lidl - Trek (WT)</t>
+          <t>INEOS Grenadiers (WT)</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -5035,58 +5035,58 @@
         <v>40</v>
       </c>
       <c r="L77" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M77" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N77" t="n">
         <v>40</v>
       </c>
       <c r="O77" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>NYS Thibau</t>
+          <t>RENARD Alexis</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Lidl - Trek (WT)</t>
+          <t>Cofidis (WT)</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J78" t="n">
         <v>0.05</v>
       </c>
       <c r="K78" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="L78" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="M78" t="n">
         <v>40</v>
@@ -5095,36 +5095,36 @@
         <v>40</v>
       </c>
       <c r="O78" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MARTIN Guillaume</t>
+          <t>OLIVEIRA Nelson</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G79" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Groupama - FDJ (WT)</t>
+          <t>Movistar Team (WT)</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -5140,46 +5140,46 @@
         <v>40</v>
       </c>
       <c r="M79" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N79" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="O79" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MADOUAS Valentin</t>
+          <t>SEGAERT Alec</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="G80" t="n">
         <v>0.5</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Groupama - FDJ (WT)</t>
+          <t>Lotto (PRT)</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J80" t="n">
         <v>0.05</v>
@@ -5188,41 +5188,41 @@
         <v>40</v>
       </c>
       <c r="L80" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="M80" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N80" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="O80" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>GRÉGOIRE Romain</t>
+          <t>ASKEY Lewis</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
       <c r="G81" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -5230,54 +5230,54 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J81" t="n">
         <v>0.05</v>
       </c>
       <c r="K81" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="L81" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="M81" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N81" t="n">
         <v>40</v>
       </c>
       <c r="O81" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>PACHER Quentin</t>
+          <t>GROVES Kaden</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="G82" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Groupama - FDJ (WT)</t>
+          <t>Alpecin - Deceuninck (WT)</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -5287,10 +5287,10 @@
         <v>0.05</v>
       </c>
       <c r="K82" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="L82" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="M82" t="n">
         <v>40</v>
@@ -5299,36 +5299,36 @@
         <v>40</v>
       </c>
       <c r="O82" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>CASTRILLO Pablo</t>
+          <t>GRÉGOIRE Romain</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="G83" t="n">
         <v>0.75</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Movistar Team (WT)</t>
+          <t>Groupama - FDJ (WT)</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -5341,45 +5341,45 @@
         <v>40</v>
       </c>
       <c r="L83" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="M83" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N83" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="O83" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MAS Enric</t>
+          <t>SCHACHMANN Maximilian</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Movistar Team (WT)</t>
+          <t>Soudal Quick-Step (WT)</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -5395,42 +5395,42 @@
         <v>70</v>
       </c>
       <c r="M84" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N84" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="O84" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>OLIVEIRA Nelson</t>
+          <t>BALLERINI Davide</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>13.7</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>13.7</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>13.7</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>13.7</v>
       </c>
       <c r="G85" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Movistar Team (WT)</t>
+          <t>XDS Astana Team (WT)</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -5440,13 +5440,13 @@
         <v>0.05</v>
       </c>
       <c r="K85" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="L85" t="n">
         <v>40</v>
       </c>
       <c r="M85" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N85" t="n">
         <v>40</v>
@@ -5458,30 +5458,30 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>RUBIO Einer</t>
+          <t>BITTNER Pavel</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>13.1</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>13.1</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>13.1</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>13.1</v>
       </c>
       <c r="G86" t="n">
         <v>0.75</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Movistar Team (WT)</t>
+          <t>Team Picnic PostNL (WT)</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -5491,7 +5491,7 @@
         <v>0.05</v>
       </c>
       <c r="K86" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="L86" t="n">
         <v>40</v>
@@ -5500,39 +5500,39 @@
         <v>40</v>
       </c>
       <c r="N86" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="O86" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>GAVIRIA Fernando</t>
+          <t>VAN POPPEL Danny</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Movistar Team (WT)</t>
+          <t>Red Bull - BORA - hansgrohe (WT)</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -5542,7 +5542,7 @@
         <v>0.05</v>
       </c>
       <c r="K87" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L87" t="n">
         <v>40</v>
@@ -5560,91 +5560,91 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ROMEO Iván</t>
+          <t>ANDRESEN Tobias Lund</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>12.7</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>12.7</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>12.7</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>12.7</v>
       </c>
       <c r="G88" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Movistar Team (WT)</t>
+          <t>Team Picnic PostNL (WT)</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J88" t="n">
         <v>0.05</v>
       </c>
       <c r="K88" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="L88" t="n">
         <v>40</v>
       </c>
       <c r="M88" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N88" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="O88" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ROMO Javier</t>
+          <t>PENHOËT Paul</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="G89" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Movistar Team (WT)</t>
+          <t>Groupama - FDJ (WT)</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J89" t="n">
         <v>0.05</v>
       </c>
       <c r="K89" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="L89" t="n">
         <v>40</v>
@@ -5656,40 +5656,40 @@
         <v>40</v>
       </c>
       <c r="O89" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ONLEY Oscar</t>
+          <t>DURBRIDGE Luke</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="G90" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Team Picnic PostNL (WT)</t>
+          <t>Team Jayco AlUla (WT)</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J90" t="n">
         <v>0.05</v>
@@ -5698,45 +5698,45 @@
         <v>40</v>
       </c>
       <c r="L90" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="M90" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N90" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="O90" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>VAN DEN BROEK Frank</t>
+          <t>FREDHEIM Stian</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G91" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Team Picnic PostNL (WT)</t>
+          <t>Uno-X Mobility (PRT)</t>
         </is>
       </c>
       <c r="I91" t="n">
@@ -5746,10 +5746,10 @@
         <v>0.05</v>
       </c>
       <c r="K91" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="L91" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="M91" t="n">
         <v>40</v>
@@ -5758,36 +5758,36 @@
         <v>40</v>
       </c>
       <c r="O91" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ANDRESEN Tobias Lund</t>
+          <t>BOL Cees</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>10.6</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>10.6</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>10.6</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>10.6</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Team Picnic PostNL (WT)</t>
+          <t>XDS Astana Team (WT)</t>
         </is>
       </c>
       <c r="I92" t="n">
@@ -5797,7 +5797,7 @@
         <v>0.05</v>
       </c>
       <c r="K92" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L92" t="n">
         <v>40</v>
@@ -5815,30 +5815,30 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>O'CONNOR Ben</t>
+          <t>POWLESS Neilson</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="G93" t="n">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Team Jayco AlUla (WT)</t>
+          <t>EF Education - EasyPost (WT)</t>
         </is>
       </c>
       <c r="I93" t="n">
@@ -5857,39 +5857,39 @@
         <v>70</v>
       </c>
       <c r="N93" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="O93" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>DUNBAR Eddie</t>
+          <t>IZAGIRRE Ion</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="G94" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Team Jayco AlUla (WT)</t>
+          <t>Cofidis (WT)</t>
         </is>
       </c>
       <c r="I94" t="n">
@@ -5905,10 +5905,10 @@
         <v>40</v>
       </c>
       <c r="M94" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N94" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="O94" t="n">
         <v>70</v>
@@ -5917,30 +5917,30 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SCHMID Mauro</t>
+          <t>LEKNESSUND Andreas</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G95" t="n">
         <v>0.5</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Team Jayco AlUla (WT)</t>
+          <t>Uno-X Mobility (PRT)</t>
         </is>
       </c>
       <c r="I95" t="n">
@@ -5953,45 +5953,45 @@
         <v>40</v>
       </c>
       <c r="L95" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="M95" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N95" t="n">
         <v>40</v>
       </c>
       <c r="O95" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>GROENEWEGEN Dylan</t>
+          <t>THOMAS Benjamin</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G96" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Team Jayco AlUla (WT)</t>
+          <t>Cofidis (WT)</t>
         </is>
       </c>
       <c r="I96" t="n">
@@ -6001,52 +6001,52 @@
         <v>0.05</v>
       </c>
       <c r="K96" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="L96" t="n">
         <v>40</v>
       </c>
       <c r="M96" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N96" t="n">
         <v>40</v>
       </c>
       <c r="O96" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>MEZGEC Luka</t>
+          <t>NYS Thibau</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="G97" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Team Jayco AlUla (WT)</t>
+          <t>Lidl - Trek (WT)</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J97" t="n">
         <v>0.05</v>
@@ -6055,7 +6055,7 @@
         <v>40</v>
       </c>
       <c r="L97" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="M97" t="n">
         <v>40</v>
@@ -6064,36 +6064,36 @@
         <v>40</v>
       </c>
       <c r="O97" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>REINDERS Elmar</t>
+          <t>NARVÁEZ Jhonatan</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="G98" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Team Jayco AlUla (WT)</t>
+          <t>UAE Team Emirates - XRG (WT)</t>
         </is>
       </c>
       <c r="I98" t="n">
@@ -6106,7 +6106,7 @@
         <v>40</v>
       </c>
       <c r="L98" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="M98" t="n">
         <v>40</v>
@@ -6115,36 +6115,36 @@
         <v>40</v>
       </c>
       <c r="O98" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>JUUL-JENSEN Christopher</t>
+          <t>ALAPHILIPPE Julian</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="G99" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Team Jayco AlUla (WT)</t>
+          <t>Tudor Pro Cycling Team (PRT)</t>
         </is>
       </c>
       <c r="I99" t="n">
@@ -6157,7 +6157,7 @@
         <v>40</v>
       </c>
       <c r="L99" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="M99" t="n">
         <v>40</v>
@@ -6166,40 +6166,40 @@
         <v>40</v>
       </c>
       <c r="O99" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>MARTINEZ Lenny</t>
+          <t>VELASCO Simone</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="G100" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Bahrain - Victorious (WT)</t>
+          <t>XDS Astana Team (WT)</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J100" t="n">
         <v>0.05</v>
@@ -6214,35 +6214,35 @@
         <v>40</v>
       </c>
       <c r="N100" t="n">
+        <v>40</v>
+      </c>
+      <c r="O100" t="n">
         <v>80</v>
-      </c>
-      <c r="O100" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BUITRAGO Santiago</t>
+          <t>MOHORIČ Matej</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G101" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -6265,39 +6265,39 @@
         <v>40</v>
       </c>
       <c r="N101" t="n">
+        <v>40</v>
+      </c>
+      <c r="O101" t="n">
         <v>80</v>
-      </c>
-      <c r="O101" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MOHORIČ Matej</t>
+          <t>SCHMID Mauro</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="G102" t="n">
         <v>0.5</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Bahrain - Victorious (WT)</t>
+          <t>Team Jayco AlUla (WT)</t>
         </is>
       </c>
       <c r="I102" t="n">
@@ -6325,30 +6325,30 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BAUHAUS Phil</t>
+          <t>HIRSCHI Marc</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Bahrain - Victorious (WT)</t>
+          <t>Tudor Pro Cycling Team (PRT)</t>
         </is>
       </c>
       <c r="I103" t="n">
@@ -6358,11 +6358,11 @@
         <v>0.05</v>
       </c>
       <c r="K103" t="n">
+        <v>40</v>
+      </c>
+      <c r="L103" t="n">
         <v>80</v>
       </c>
-      <c r="L103" t="n">
-        <v>40</v>
-      </c>
       <c r="M103" t="n">
         <v>40</v>
       </c>
@@ -6370,36 +6370,36 @@
         <v>40</v>
       </c>
       <c r="O103" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>VELASCO Simone</t>
+          <t>LOUVEL Matis</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="G104" t="n">
         <v>0.5</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>XDS Astana Team (WT)</t>
+          <t>Israel - Premier Tech (PRT)</t>
         </is>
       </c>
       <c r="I104" t="n">
@@ -6412,7 +6412,7 @@
         <v>40</v>
       </c>
       <c r="L104" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="M104" t="n">
         <v>40</v>
@@ -6421,36 +6421,36 @@
         <v>40</v>
       </c>
       <c r="O104" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>TEJADA Harold</t>
+          <t>SOLER Marc</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="G105" t="n">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>XDS Astana Team (WT)</t>
+          <t>UAE Team Emirates - XRG (WT)</t>
         </is>
       </c>
       <c r="I105" t="n">
@@ -6463,13 +6463,13 @@
         <v>40</v>
       </c>
       <c r="L105" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M105" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N105" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="O105" t="n">
         <v>70</v>
@@ -6478,30 +6478,30 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>CHAMPOUSSIN Clément</t>
+          <t>CORT Magnus</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G106" t="n">
         <v>0.5</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>XDS Astana Team (WT)</t>
+          <t>Uno-X Mobility (PRT)</t>
         </is>
       </c>
       <c r="I106" t="n">
@@ -6520,7 +6520,7 @@
         <v>40</v>
       </c>
       <c r="N106" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="O106" t="n">
         <v>80</v>
@@ -6529,30 +6529,30 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>HIGUITA Sergio</t>
+          <t>VAN DEN BROEK Frank</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G107" t="n">
         <v>0.5</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>XDS Astana Team (WT)</t>
+          <t>Team Picnic PostNL (WT)</t>
         </is>
       </c>
       <c r="I107" t="n">
@@ -6565,13 +6565,13 @@
         <v>40</v>
       </c>
       <c r="L107" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M107" t="n">
         <v>40</v>
       </c>
       <c r="N107" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="O107" t="n">
         <v>70</v>
@@ -6580,40 +6580,40 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>DE LIE Arnaud</t>
+          <t>BLACKMORE Joseph</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="G108" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Lotto (PRT)</t>
+          <t>Israel - Premier Tech (PRT)</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J108" t="n">
         <v>0.05</v>
       </c>
       <c r="K108" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="L108" t="n">
         <v>70</v>
@@ -6625,40 +6625,40 @@
         <v>40</v>
       </c>
       <c r="O108" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>VAN EETVELT Lennert</t>
+          <t>TEUNS Dylan</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Lotto (PRT)</t>
+          <t>Cofidis (WT)</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J109" t="n">
         <v>0.05</v>
@@ -6673,7 +6673,7 @@
         <v>40</v>
       </c>
       <c r="N109" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="O109" t="n">
         <v>70</v>
@@ -6682,30 +6682,30 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>DE BUYST Jasper</t>
+          <t>BENOOT Tiesj</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="G110" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Lotto (PRT)</t>
+          <t>Team Visma | Lease a Bike (WT)</t>
         </is>
       </c>
       <c r="I110" t="n">
@@ -6718,7 +6718,7 @@
         <v>40</v>
       </c>
       <c r="L110" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M110" t="n">
         <v>40</v>
@@ -6727,40 +6727,40 @@
         <v>40</v>
       </c>
       <c r="O110" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BERCKMOES Jenno</t>
+          <t>ABRAHAMSEN Jonas</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="G111" t="n">
         <v>0.5</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Lotto (PRT)</t>
+          <t>Uno-X Mobility (PRT)</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J111" t="n">
         <v>0.05</v>
@@ -6769,7 +6769,7 @@
         <v>40</v>
       </c>
       <c r="L111" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="M111" t="n">
         <v>40</v>
@@ -6784,30 +6784,30 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>DRIZNERS Jarrad</t>
+          <t>BURGAUDEAU Mathieu</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="G112" t="n">
         <v>0.5</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Lotto (PRT)</t>
+          <t>Team TotalEnergies (PRT)</t>
         </is>
       </c>
       <c r="I112" t="n">
@@ -6829,36 +6829,36 @@
         <v>40</v>
       </c>
       <c r="O112" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SEPÚLVEDA Eduardo</t>
+          <t>WRIGHT Fred</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
         <v>0.5</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Lotto (PRT)</t>
+          <t>Bahrain - Victorious (WT)</t>
         </is>
       </c>
       <c r="I113" t="n">
@@ -6877,32 +6877,32 @@
         <v>40</v>
       </c>
       <c r="N113" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="O113" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>VAN MOER Brent</t>
+          <t>BERCKMOES Jenno</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
         <v>0.5</v>
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="I114" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J114" t="n">
         <v>0.05</v>
@@ -6922,7 +6922,7 @@
         <v>40</v>
       </c>
       <c r="L114" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M114" t="n">
         <v>40</v>
@@ -6931,40 +6931,40 @@
         <v>40</v>
       </c>
       <c r="O114" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SEGAERT Alec</t>
+          <t>EENKHOORN Pascal</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G115" t="n">
         <v>0.5</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Lotto (PRT)</t>
+          <t>Soudal Quick-Step (WT)</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J115" t="n">
         <v>0.05</v>
@@ -6976,7 +6976,7 @@
         <v>40</v>
       </c>
       <c r="M115" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N115" t="n">
         <v>40</v>
@@ -6988,30 +6988,30 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ACKERMANN Pascal</t>
+          <t>SKUJIŅŠ Toms</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G116" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Israel - Premier Tech (PRT)</t>
+          <t>Lidl - Trek (WT)</t>
         </is>
       </c>
       <c r="I116" t="n">
@@ -7021,7 +7021,7 @@
         <v>0.05</v>
       </c>
       <c r="K116" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="L116" t="n">
         <v>40</v>
@@ -7033,40 +7033,40 @@
         <v>40</v>
       </c>
       <c r="O116" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BLACKMORE Joseph</t>
+          <t>JOHANNESSEN Anders Halland</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G117" t="n">
         <v>0.5</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Israel - Premier Tech (PRT)</t>
+          <t>Uno-X Mobility (PRT)</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J117" t="n">
         <v>0.05</v>
@@ -7075,7 +7075,7 @@
         <v>40</v>
       </c>
       <c r="L117" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="M117" t="n">
         <v>40</v>
@@ -7090,30 +7090,30 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>WOODS Michael</t>
+          <t>KWIATKOWSKI Michał</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G118" t="n">
         <v>0.5</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Israel - Premier Tech (PRT)</t>
+          <t>INEOS Grenadiers (WT)</t>
         </is>
       </c>
       <c r="I118" t="n">
@@ -7132,7 +7132,7 @@
         <v>40</v>
       </c>
       <c r="N118" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="O118" t="n">
         <v>70</v>
@@ -7141,30 +7141,30 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>LUTSENKO Alexey</t>
+          <t>VAN MOER Brent</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G119" t="n">
         <v>0.5</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Israel - Premier Tech (PRT)</t>
+          <t>Lotto (PRT)</t>
         </is>
       </c>
       <c r="I119" t="n">
@@ -7177,13 +7177,13 @@
         <v>40</v>
       </c>
       <c r="L119" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="M119" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N119" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="O119" t="n">
         <v>70</v>
@@ -7192,30 +7192,30 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>STEWART Jake</t>
+          <t>COSTIOU Ewen</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Israel - Premier Tech (PRT)</t>
+          <t>Arkéa - B&amp;B Hotels (WT)</t>
         </is>
       </c>
       <c r="I120" t="n">
@@ -7225,10 +7225,10 @@
         <v>0.05</v>
       </c>
       <c r="K120" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="L120" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M120" t="n">
         <v>40</v>
@@ -7237,36 +7237,36 @@
         <v>40</v>
       </c>
       <c r="O120" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BENNETT George</t>
+          <t>SWEENY Harry</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G121" t="n">
         <v>0.5</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Israel - Premier Tech (PRT)</t>
+          <t>EF Education - EasyPost (WT)</t>
         </is>
       </c>
       <c r="I121" t="n">
@@ -7285,7 +7285,7 @@
         <v>40</v>
       </c>
       <c r="N121" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="O121" t="n">
         <v>70</v>
@@ -7294,30 +7294,30 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BURGAUDEAU Mathieu</t>
+          <t>WELLENS Tim</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G122" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Team TotalEnergies (PRT)</t>
+          <t>UAE Team Emirates - XRG (WT)</t>
         </is>
       </c>
       <c r="I122" t="n">
@@ -7339,32 +7339,32 @@
         <v>40</v>
       </c>
       <c r="O122" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ALAPHILIPPE Julian</t>
+          <t>TRENTIN Matteo</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G123" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>40</v>
       </c>
       <c r="L123" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M123" t="n">
         <v>40</v>
@@ -7390,36 +7390,36 @@
         <v>40</v>
       </c>
       <c r="O123" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>CORT Magnus</t>
+          <t>LE BERRE Mathis</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G124" t="n">
         <v>0.5</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Uno-X Mobility (PRT)</t>
+          <t>Arkéa - B&amp;B Hotels (WT)</t>
         </is>
       </c>
       <c r="I124" t="n">
@@ -7432,7 +7432,7 @@
         <v>40</v>
       </c>
       <c r="L124" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="M124" t="n">
         <v>40</v>
@@ -7441,36 +7441,36 @@
         <v>40</v>
       </c>
       <c r="O124" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>WÆRENSKJOLD Søren</t>
+          <t>FEDOROV Yevgeniy</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G125" t="n">
         <v>0.75</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Uno-X Mobility (PRT)</t>
+          <t>XDS Astana Team (WT)</t>
         </is>
       </c>
       <c r="I125" t="n">
@@ -7480,7 +7480,7 @@
         <v>0.05</v>
       </c>
       <c r="K125" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="L125" t="n">
         <v>40</v>
@@ -7492,36 +7492,36 @@
         <v>40</v>
       </c>
       <c r="O125" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>LEKNESSUND Andreas</t>
+          <t>PACHER Quentin</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G126" t="n">
         <v>0.5</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Uno-X Mobility (PRT)</t>
+          <t>Groupama - FDJ (WT)</t>
         </is>
       </c>
       <c r="I126" t="n">
@@ -7534,45 +7534,45 @@
         <v>40</v>
       </c>
       <c r="L126" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M126" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N126" t="n">
         <v>40</v>
       </c>
       <c r="O126" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>JOHANNESSEN Tobias Halland</t>
+          <t>SIMMONS Quinn</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G127" t="n">
         <v>0.5</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Uno-X Mobility (PRT)</t>
+          <t>Lidl - Trek (WT)</t>
         </is>
       </c>
       <c r="I127" t="n">
@@ -7591,39 +7591,39 @@
         <v>40</v>
       </c>
       <c r="N127" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="O127" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>JOHANNESSEN Anders Halland</t>
+          <t>THEUNS Edward</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G128" t="n">
         <v>0.5</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Uno-X Mobility (PRT)</t>
+          <t>Lidl - Trek (WT)</t>
         </is>
       </c>
       <c r="I128" t="n">
@@ -7651,30 +7651,30 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ABRAHAMSEN Jonas</t>
+          <t>REX Laurenz</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G129" t="n">
         <v>0.5</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Uno-X Mobility (PRT)</t>
+          <t>Intermarché - Wanty (WT)</t>
         </is>
       </c>
       <c r="I129" t="n">
@@ -7696,36 +7696,36 @@
         <v>40</v>
       </c>
       <c r="O129" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>HOELGAARD Markus</t>
+          <t>VENTURINI Clément</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G130" t="n">
         <v>0.5</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Uno-X Mobility (PRT)</t>
+          <t>Arkéa - B&amp;B Hotels (WT)</t>
         </is>
       </c>
       <c r="I130" t="n">
@@ -7738,7 +7738,7 @@
         <v>40</v>
       </c>
       <c r="L130" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M130" t="n">
         <v>40</v>
@@ -7753,51 +7753,2346 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>FREDHEIM Stian</t>
+          <t>TURGIS Anthony</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
+          <t>Team TotalEnergies (PRT)</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>25</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K131" t="n">
+        <v>40</v>
+      </c>
+      <c r="L131" t="n">
+        <v>70</v>
+      </c>
+      <c r="M131" t="n">
+        <v>40</v>
+      </c>
+      <c r="N131" t="n">
+        <v>40</v>
+      </c>
+      <c r="O131" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>RIESEBEEK Oscar</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Alpecin - Deceuninck (WT)</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>25</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K132" t="n">
+        <v>40</v>
+      </c>
+      <c r="L132" t="n">
+        <v>40</v>
+      </c>
+      <c r="M132" t="n">
+        <v>40</v>
+      </c>
+      <c r="N132" t="n">
+        <v>40</v>
+      </c>
+      <c r="O132" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>PITHIE Laurence</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Red Bull - BORA - hansgrohe (WT)</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>24</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K133" t="n">
+        <v>40</v>
+      </c>
+      <c r="L133" t="n">
+        <v>40</v>
+      </c>
+      <c r="M133" t="n">
+        <v>40</v>
+      </c>
+      <c r="N133" t="n">
+        <v>40</v>
+      </c>
+      <c r="O133" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>PEDERSEN Casper</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Soudal Quick-Step (WT)</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>25</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K134" t="n">
+        <v>40</v>
+      </c>
+      <c r="L134" t="n">
+        <v>40</v>
+      </c>
+      <c r="M134" t="n">
+        <v>40</v>
+      </c>
+      <c r="N134" t="n">
+        <v>40</v>
+      </c>
+      <c r="O134" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>VAN LERBERGHE Bert</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Soudal Quick-Step (WT)</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>25</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K135" t="n">
+        <v>40</v>
+      </c>
+      <c r="L135" t="n">
+        <v>40</v>
+      </c>
+      <c r="M135" t="n">
+        <v>40</v>
+      </c>
+      <c r="N135" t="n">
+        <v>40</v>
+      </c>
+      <c r="O135" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>POLITT Nils</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>UAE Team Emirates - XRG (WT)</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>25</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K136" t="n">
+        <v>40</v>
+      </c>
+      <c r="L136" t="n">
+        <v>40</v>
+      </c>
+      <c r="M136" t="n">
+        <v>40</v>
+      </c>
+      <c r="N136" t="n">
+        <v>40</v>
+      </c>
+      <c r="O136" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>VAN SINTMAARTENSDIJK Roel</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Intermarché - Wanty (WT)</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>25</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K137" t="n">
+        <v>40</v>
+      </c>
+      <c r="L137" t="n">
+        <v>40</v>
+      </c>
+      <c r="M137" t="n">
+        <v>40</v>
+      </c>
+      <c r="N137" t="n">
+        <v>40</v>
+      </c>
+      <c r="O137" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>RUTSCH Jonas</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Intermarché - Wanty (WT)</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>25</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K138" t="n">
+        <v>40</v>
+      </c>
+      <c r="L138" t="n">
+        <v>40</v>
+      </c>
+      <c r="M138" t="n">
+        <v>40</v>
+      </c>
+      <c r="N138" t="n">
+        <v>40</v>
+      </c>
+      <c r="O138" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>BRAET Vito</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Intermarché - Wanty (WT)</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>25</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K139" t="n">
+        <v>40</v>
+      </c>
+      <c r="L139" t="n">
+        <v>40</v>
+      </c>
+      <c r="M139" t="n">
+        <v>40</v>
+      </c>
+      <c r="N139" t="n">
+        <v>40</v>
+      </c>
+      <c r="O139" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>MOSCON Gianni</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Red Bull - BORA - hansgrohe (WT)</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>25</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K140" t="n">
+        <v>40</v>
+      </c>
+      <c r="L140" t="n">
+        <v>40</v>
+      </c>
+      <c r="M140" t="n">
+        <v>40</v>
+      </c>
+      <c r="N140" t="n">
+        <v>40</v>
+      </c>
+      <c r="O140" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>BOIVIN Guillaume</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Israel - Premier Tech (PRT)</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>25</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K141" t="n">
+        <v>40</v>
+      </c>
+      <c r="L141" t="n">
+        <v>40</v>
+      </c>
+      <c r="M141" t="n">
+        <v>40</v>
+      </c>
+      <c r="N141" t="n">
+        <v>40</v>
+      </c>
+      <c r="O141" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>GRADEK Kamil</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Bahrain - Victorious (WT)</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>25</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K142" t="n">
+        <v>40</v>
+      </c>
+      <c r="L142" t="n">
+        <v>40</v>
+      </c>
+      <c r="M142" t="n">
+        <v>40</v>
+      </c>
+      <c r="N142" t="n">
+        <v>40</v>
+      </c>
+      <c r="O142" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>STANNARD Robert</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Bahrain - Victorious (WT)</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>25</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K143" t="n">
+        <v>40</v>
+      </c>
+      <c r="L143" t="n">
+        <v>40</v>
+      </c>
+      <c r="M143" t="n">
+        <v>40</v>
+      </c>
+      <c r="N143" t="n">
+        <v>40</v>
+      </c>
+      <c r="O143" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>VAN DIJKE Mick</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Red Bull - BORA - hansgrohe (WT)</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>25</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K144" t="n">
+        <v>40</v>
+      </c>
+      <c r="L144" t="n">
+        <v>40</v>
+      </c>
+      <c r="M144" t="n">
+        <v>40</v>
+      </c>
+      <c r="N144" t="n">
+        <v>40</v>
+      </c>
+      <c r="O144" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>DRIZNERS Jarrad</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Lotto (PRT)</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>25</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K145" t="n">
+        <v>40</v>
+      </c>
+      <c r="L145" t="n">
+        <v>40</v>
+      </c>
+      <c r="M145" t="n">
+        <v>40</v>
+      </c>
+      <c r="N145" t="n">
+        <v>40</v>
+      </c>
+      <c r="O145" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>DE BUYST Jasper</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Lotto (PRT)</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>25</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K146" t="n">
+        <v>40</v>
+      </c>
+      <c r="L146" t="n">
+        <v>40</v>
+      </c>
+      <c r="M146" t="n">
+        <v>40</v>
+      </c>
+      <c r="N146" t="n">
+        <v>40</v>
+      </c>
+      <c r="O146" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>MEZGEC Luka</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Team Jayco AlUla (WT)</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>25</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K147" t="n">
+        <v>40</v>
+      </c>
+      <c r="L147" t="n">
+        <v>40</v>
+      </c>
+      <c r="M147" t="n">
+        <v>40</v>
+      </c>
+      <c r="N147" t="n">
+        <v>40</v>
+      </c>
+      <c r="O147" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>REINDERS Elmar</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Team Jayco AlUla (WT)</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>25</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K148" t="n">
+        <v>40</v>
+      </c>
+      <c r="L148" t="n">
+        <v>40</v>
+      </c>
+      <c r="M148" t="n">
+        <v>40</v>
+      </c>
+      <c r="N148" t="n">
+        <v>40</v>
+      </c>
+      <c r="O148" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>STUYVEN Jasper</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Lidl - Trek (WT)</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>25</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K149" t="n">
+        <v>40</v>
+      </c>
+      <c r="L149" t="n">
+        <v>40</v>
+      </c>
+      <c r="M149" t="n">
+        <v>40</v>
+      </c>
+      <c r="N149" t="n">
+        <v>40</v>
+      </c>
+      <c r="O149" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>PAGE Hugo</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Intermarché - Wanty (WT)</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>25</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K150" t="n">
+        <v>40</v>
+      </c>
+      <c r="L150" t="n">
+        <v>40</v>
+      </c>
+      <c r="M150" t="n">
+        <v>40</v>
+      </c>
+      <c r="N150" t="n">
+        <v>40</v>
+      </c>
+      <c r="O150" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>CONSONNI Simone</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Lidl - Trek (WT)</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>25</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K151" t="n">
+        <v>40</v>
+      </c>
+      <c r="L151" t="n">
+        <v>40</v>
+      </c>
+      <c r="M151" t="n">
+        <v>40</v>
+      </c>
+      <c r="N151" t="n">
+        <v>40</v>
+      </c>
+      <c r="O151" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>TOUZÉ Damien</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Cofidis (WT)</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>25</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K152" t="n">
+        <v>40</v>
+      </c>
+      <c r="L152" t="n">
+        <v>40</v>
+      </c>
+      <c r="M152" t="n">
+        <v>40</v>
+      </c>
+      <c r="N152" t="n">
+        <v>40</v>
+      </c>
+      <c r="O152" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>ARMIRAIL Bruno</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Decathlon AG2R La Mondiale Team (WT)</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>25</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>40</v>
+      </c>
+      <c r="L153" t="n">
+        <v>40</v>
+      </c>
+      <c r="M153" t="n">
+        <v>40</v>
+      </c>
+      <c r="N153" t="n">
+        <v>40</v>
+      </c>
+      <c r="O153" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>BISSEGGER Stefan</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Decathlon AG2R La Mondiale Team (WT)</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>25</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>40</v>
+      </c>
+      <c r="L154" t="n">
+        <v>40</v>
+      </c>
+      <c r="M154" t="n">
+        <v>40</v>
+      </c>
+      <c r="N154" t="n">
+        <v>40</v>
+      </c>
+      <c r="O154" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>HOELGAARD Markus</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
           <t>Uno-X Mobility (PRT)</t>
         </is>
       </c>
-      <c r="I131" t="n">
-        <v>25</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="K131" t="n">
-        <v>70</v>
-      </c>
-      <c r="L131" t="n">
-        <v>40</v>
-      </c>
-      <c r="M131" t="n">
-        <v>40</v>
-      </c>
-      <c r="N131" t="n">
-        <v>40</v>
-      </c>
-      <c r="O131" t="n">
+      <c r="I155" t="n">
+        <v>25</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K155" t="n">
+        <v>40</v>
+      </c>
+      <c r="L155" t="n">
+        <v>40</v>
+      </c>
+      <c r="M155" t="n">
+        <v>40</v>
+      </c>
+      <c r="N155" t="n">
+        <v>40</v>
+      </c>
+      <c r="O155" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>PARET-PEINTRE Aurélien</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Decathlon AG2R La Mondiale Team (WT)</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>25</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>40</v>
+      </c>
+      <c r="L156" t="n">
+        <v>40</v>
+      </c>
+      <c r="M156" t="n">
+        <v>40</v>
+      </c>
+      <c r="N156" t="n">
+        <v>40</v>
+      </c>
+      <c r="O156" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>TRONCHON Bastien</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Decathlon AG2R La Mondiale Team (WT)</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>25</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>40</v>
+      </c>
+      <c r="L157" t="n">
+        <v>40</v>
+      </c>
+      <c r="M157" t="n">
+        <v>40</v>
+      </c>
+      <c r="N157" t="n">
+        <v>40</v>
+      </c>
+      <c r="O157" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>GARCÍA PIERNA Raúl</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Arkéa - B&amp;B Hotels (WT)</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>25</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K158" t="n">
+        <v>40</v>
+      </c>
+      <c r="L158" t="n">
+        <v>40</v>
+      </c>
+      <c r="M158" t="n">
+        <v>40</v>
+      </c>
+      <c r="N158" t="n">
+        <v>40</v>
+      </c>
+      <c r="O158" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>BERTHET Clément</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Decathlon AG2R La Mondiale Team (WT)</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>25</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>40</v>
+      </c>
+      <c r="L159" t="n">
+        <v>40</v>
+      </c>
+      <c r="M159" t="n">
+        <v>40</v>
+      </c>
+      <c r="N159" t="n">
+        <v>40</v>
+      </c>
+      <c r="O159" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>NAESEN Oliver</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Decathlon AG2R La Mondiale Team (WT)</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>25</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>40</v>
+      </c>
+      <c r="L160" t="n">
+        <v>40</v>
+      </c>
+      <c r="M160" t="n">
+        <v>40</v>
+      </c>
+      <c r="N160" t="n">
+        <v>40</v>
+      </c>
+      <c r="O160" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>CAPIOT Amaury</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Arkéa - B&amp;B Hotels (WT)</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>25</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K161" t="n">
+        <v>40</v>
+      </c>
+      <c r="L161" t="n">
+        <v>40</v>
+      </c>
+      <c r="M161" t="n">
+        <v>40</v>
+      </c>
+      <c r="N161" t="n">
+        <v>40</v>
+      </c>
+      <c r="O161" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>SCOTSON Callum</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Decathlon AG2R La Mondiale Team (WT)</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>25</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>40</v>
+      </c>
+      <c r="L162" t="n">
+        <v>40</v>
+      </c>
+      <c r="M162" t="n">
+        <v>40</v>
+      </c>
+      <c r="N162" t="n">
+        <v>40</v>
+      </c>
+      <c r="O162" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>FLYNN Sean</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Team Picnic PostNL (WT)</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>25</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K163" t="n">
+        <v>40</v>
+      </c>
+      <c r="L163" t="n">
+        <v>40</v>
+      </c>
+      <c r="M163" t="n">
+        <v>40</v>
+      </c>
+      <c r="N163" t="n">
+        <v>40</v>
+      </c>
+      <c r="O163" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>BARTHE Cyril</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Groupama - FDJ (WT)</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>25</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K164" t="n">
+        <v>40</v>
+      </c>
+      <c r="L164" t="n">
+        <v>40</v>
+      </c>
+      <c r="M164" t="n">
+        <v>40</v>
+      </c>
+      <c r="N164" t="n">
+        <v>40</v>
+      </c>
+      <c r="O164" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>RUSSO Clément</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Groupama - FDJ (WT)</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>25</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K165" t="n">
+        <v>40</v>
+      </c>
+      <c r="L165" t="n">
+        <v>40</v>
+      </c>
+      <c r="M165" t="n">
+        <v>40</v>
+      </c>
+      <c r="N165" t="n">
+        <v>40</v>
+      </c>
+      <c r="O165" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>MÜHLBERGER Gregor</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Movistar Team (WT)</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>25</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K166" t="n">
+        <v>40</v>
+      </c>
+      <c r="L166" t="n">
+        <v>40</v>
+      </c>
+      <c r="M166" t="n">
+        <v>40</v>
+      </c>
+      <c r="N166" t="n">
+        <v>40</v>
+      </c>
+      <c r="O166" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>BARTA Will</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Movistar Team (WT)</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>25</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K167" t="n">
+        <v>40</v>
+      </c>
+      <c r="L167" t="n">
+        <v>40</v>
+      </c>
+      <c r="M167" t="n">
+        <v>40</v>
+      </c>
+      <c r="N167" t="n">
+        <v>40</v>
+      </c>
+      <c r="O167" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>NABERMAN Tim</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Team Picnic PostNL (WT)</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>25</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K168" t="n">
+        <v>40</v>
+      </c>
+      <c r="L168" t="n">
+        <v>40</v>
+      </c>
+      <c r="M168" t="n">
+        <v>40</v>
+      </c>
+      <c r="N168" t="n">
+        <v>40</v>
+      </c>
+      <c r="O168" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>TEUNISSEN Mike</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>0</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>XDS Astana Team (WT)</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>25</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K169" t="n">
+        <v>40</v>
+      </c>
+      <c r="L169" t="n">
+        <v>40</v>
+      </c>
+      <c r="M169" t="n">
+        <v>40</v>
+      </c>
+      <c r="N169" t="n">
+        <v>40</v>
+      </c>
+      <c r="O169" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>MÄRKL Niklas</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>0</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Team Picnic PostNL (WT)</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>25</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K170" t="n">
+        <v>40</v>
+      </c>
+      <c r="L170" t="n">
+        <v>40</v>
+      </c>
+      <c r="M170" t="n">
+        <v>40</v>
+      </c>
+      <c r="N170" t="n">
+        <v>40</v>
+      </c>
+      <c r="O170" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>VERCHER Mattéo</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Team TotalEnergies (PRT)</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>25</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K171" t="n">
+        <v>40</v>
+      </c>
+      <c r="L171" t="n">
+        <v>40</v>
+      </c>
+      <c r="M171" t="n">
+        <v>40</v>
+      </c>
+      <c r="N171" t="n">
+        <v>40</v>
+      </c>
+      <c r="O171" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>DELETTRE Alexandre</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Team TotalEnergies (PRT)</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>25</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K172" t="n">
+        <v>40</v>
+      </c>
+      <c r="L172" t="n">
+        <v>40</v>
+      </c>
+      <c r="M172" t="n">
+        <v>40</v>
+      </c>
+      <c r="N172" t="n">
+        <v>40</v>
+      </c>
+      <c r="O172" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>HALLER Marco</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Tudor Pro Cycling Team (PRT)</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>25</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K173" t="n">
+        <v>40</v>
+      </c>
+      <c r="L173" t="n">
+        <v>40</v>
+      </c>
+      <c r="M173" t="n">
+        <v>40</v>
+      </c>
+      <c r="N173" t="n">
+        <v>40</v>
+      </c>
+      <c r="O173" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>GACHIGNARD Thomas</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Team TotalEnergies (PRT)</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>25</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K174" t="n">
+        <v>40</v>
+      </c>
+      <c r="L174" t="n">
+        <v>40</v>
+      </c>
+      <c r="M174" t="n">
+        <v>40</v>
+      </c>
+      <c r="N174" t="n">
+        <v>40</v>
+      </c>
+      <c r="O174" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>MAYRHOFER Marius</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Tudor Pro Cycling Team (PRT)</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>25</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K175" t="n">
+        <v>40</v>
+      </c>
+      <c r="L175" t="n">
+        <v>40</v>
+      </c>
+      <c r="M175" t="n">
+        <v>40</v>
+      </c>
+      <c r="N175" t="n">
+        <v>40</v>
+      </c>
+      <c r="O175" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>LIENHARD Fabian</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Tudor Pro Cycling Team (PRT)</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>25</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K176" t="n">
+        <v>40</v>
+      </c>
+      <c r="L176" t="n">
+        <v>40</v>
+      </c>
+      <c r="M176" t="n">
+        <v>40</v>
+      </c>
+      <c r="N176" t="n">
+        <v>40</v>
+      </c>
+      <c r="O176" t="n">
         <v>40</v>
       </c>
     </row>
